--- a/6/1/1/3/7/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/7/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10623,13 +10626,13 @@
         <v>1331</v>
       </c>
       <c r="N173">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="O173">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P173">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="Q173">
         <v>158</v>
@@ -10676,16 +10679,16 @@
         <v>106</v>
       </c>
       <c r="M174">
-        <v>1418</v>
+        <v>1443</v>
       </c>
       <c r="N174">
         <v>893</v>
       </c>
       <c r="O174">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P174">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="Q174">
         <v>154</v>
@@ -10732,22 +10735,78 @@
         <v>117</v>
       </c>
       <c r="M175">
-        <v>1377</v>
+        <v>1402</v>
       </c>
       <c r="N175">
         <v>800</v>
       </c>
       <c r="O175">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P175">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="Q175">
         <v>155</v>
       </c>
       <c r="R175">
         <v>36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="A176" t="s">
+        <v>191</v>
+      </c>
+      <c r="B176">
+        <v>-849</v>
+      </c>
+      <c r="C176">
+        <v>-815</v>
+      </c>
+      <c r="D176">
+        <v>1312</v>
+      </c>
+      <c r="E176">
+        <v>2126</v>
+      </c>
+      <c r="F176">
+        <v>-35</v>
+      </c>
+      <c r="G176">
+        <v>8</v>
+      </c>
+      <c r="H176">
+        <v>43</v>
+      </c>
+      <c r="I176">
+        <v>3489</v>
+      </c>
+      <c r="J176">
+        <v>3438</v>
+      </c>
+      <c r="K176">
+        <v>60</v>
+      </c>
+      <c r="L176">
+        <v>80</v>
+      </c>
+      <c r="M176">
+        <v>1500</v>
+      </c>
+      <c r="N176">
+        <v>823</v>
+      </c>
+      <c r="O176">
+        <v>564</v>
+      </c>
+      <c r="P176">
+        <v>275</v>
+      </c>
+      <c r="Q176">
+        <v>136</v>
+      </c>
+      <c r="R176">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/7/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/7/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10646,13 +10649,13 @@
         <v>189</v>
       </c>
       <c r="B174">
-        <v>-1044</v>
+        <v>-1033</v>
       </c>
       <c r="C174">
-        <v>-1026</v>
+        <v>-1015</v>
       </c>
       <c r="D174">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="E174">
         <v>2227</v>
@@ -10667,10 +10670,10 @@
         <v>28</v>
       </c>
       <c r="I174">
-        <v>3467</v>
+        <v>3477</v>
       </c>
       <c r="J174">
-        <v>3429</v>
+        <v>3439</v>
       </c>
       <c r="K174">
         <v>13</v>
@@ -10679,16 +10682,16 @@
         <v>106</v>
       </c>
       <c r="M174">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="N174">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="O174">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="P174">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q174">
         <v>154</v>
@@ -10702,13 +10705,13 @@
         <v>190</v>
       </c>
       <c r="B175">
-        <v>-827</v>
+        <v>-816</v>
       </c>
       <c r="C175">
-        <v>-806</v>
+        <v>-796</v>
       </c>
       <c r="D175">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="E175">
         <v>2083</v>
@@ -10723,10 +10726,10 @@
         <v>28</v>
       </c>
       <c r="I175">
-        <v>3395</v>
+        <v>3406</v>
       </c>
       <c r="J175">
-        <v>3359</v>
+        <v>3370</v>
       </c>
       <c r="K175">
         <v>37</v>
@@ -10735,16 +10738,16 @@
         <v>117</v>
       </c>
       <c r="M175">
-        <v>1402</v>
+        <v>1410</v>
       </c>
       <c r="N175">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="O175">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="P175">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q175">
         <v>155</v>
@@ -10758,16 +10761,16 @@
         <v>191</v>
       </c>
       <c r="B176">
-        <v>-849</v>
+        <v>-835</v>
       </c>
       <c r="C176">
-        <v>-815</v>
+        <v>-800</v>
       </c>
       <c r="D176">
-        <v>1312</v>
+        <v>1322</v>
       </c>
       <c r="E176">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="F176">
         <v>-35</v>
@@ -10779,33 +10782,89 @@
         <v>43</v>
       </c>
       <c r="I176">
-        <v>3489</v>
+        <v>3496</v>
       </c>
       <c r="J176">
-        <v>3438</v>
+        <v>3445</v>
       </c>
       <c r="K176">
         <v>60</v>
       </c>
       <c r="L176">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M176">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="N176">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="O176">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="P176">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q176">
         <v>136</v>
       </c>
       <c r="R176">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177" t="s">
+        <v>192</v>
+      </c>
+      <c r="B177">
+        <v>-1008</v>
+      </c>
+      <c r="C177">
+        <v>-974</v>
+      </c>
+      <c r="D177">
+        <v>1255</v>
+      </c>
+      <c r="E177">
+        <v>2229</v>
+      </c>
+      <c r="F177">
+        <v>-35</v>
+      </c>
+      <c r="G177">
+        <v>8</v>
+      </c>
+      <c r="H177">
+        <v>43</v>
+      </c>
+      <c r="I177">
+        <v>3535</v>
+      </c>
+      <c r="J177">
+        <v>3485</v>
+      </c>
+      <c r="K177">
+        <v>63</v>
+      </c>
+      <c r="L177">
+        <v>57</v>
+      </c>
+      <c r="M177">
+        <v>1526</v>
+      </c>
+      <c r="N177">
+        <v>903</v>
+      </c>
+      <c r="O177">
+        <v>536</v>
+      </c>
+      <c r="P177">
+        <v>263</v>
+      </c>
+      <c r="Q177">
+        <v>136</v>
+      </c>
+      <c r="R177">
         <v>51</v>
       </c>
     </row>

--- a/6/1/1/3/7/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/7/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="194">
   <si>
     <t>Serie</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -950,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10744,10 +10747,10 @@
         <v>792</v>
       </c>
       <c r="O175">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="P175">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q175">
         <v>155</v>
@@ -10800,10 +10803,10 @@
         <v>814</v>
       </c>
       <c r="O176">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="P176">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q176">
         <v>136</v>
@@ -10856,15 +10859,71 @@
         <v>903</v>
       </c>
       <c r="O177">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P177">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q177">
         <v>136</v>
       </c>
       <c r="R177">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" t="s">
+        <v>193</v>
+      </c>
+      <c r="B178">
+        <v>-1098</v>
+      </c>
+      <c r="C178">
+        <v>-1063</v>
+      </c>
+      <c r="D178">
+        <v>1046</v>
+      </c>
+      <c r="E178">
+        <v>2109</v>
+      </c>
+      <c r="F178">
+        <v>-35</v>
+      </c>
+      <c r="G178">
+        <v>8</v>
+      </c>
+      <c r="H178">
+        <v>43</v>
+      </c>
+      <c r="I178">
+        <v>3206</v>
+      </c>
+      <c r="J178">
+        <v>3155</v>
+      </c>
+      <c r="K178">
+        <v>16</v>
+      </c>
+      <c r="L178">
+        <v>40</v>
+      </c>
+      <c r="M178">
+        <v>1250</v>
+      </c>
+      <c r="N178">
+        <v>1044</v>
+      </c>
+      <c r="O178">
+        <v>416</v>
+      </c>
+      <c r="P178">
+        <v>254</v>
+      </c>
+      <c r="Q178">
+        <v>136</v>
+      </c>
+      <c r="R178">
         <v>51</v>
       </c>
     </row>
